--- a/nr-mv-MS/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3029,7 +3029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>78</v>
@@ -4665,7 +4665,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>209</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
@@ -4782,7 +4782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>214</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>78</v>
@@ -4899,7 +4899,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>219</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
@@ -5154,7 +5154,7 @@
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
@@ -6309,7 +6309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>310</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>78</v>
@@ -6430,7 +6430,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>320</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
@@ -7015,7 +7015,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>349</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
@@ -7130,7 +7130,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>354</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
@@ -7360,7 +7360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>367</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>78</v>
@@ -7479,7 +7479,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>372</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
@@ -7598,7 +7598,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>377</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>78</v>
@@ -7717,7 +7717,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>382</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
@@ -7836,7 +7836,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>387</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>78</v>
@@ -7955,7 +7955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>392</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>78</v>
@@ -8074,7 +8074,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>397</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>78</v>
@@ -8421,7 +8421,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>416</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>78</v>
@@ -8555,7 +8555,7 @@
         <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>78</v>
@@ -15728,7 +15728,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
         <v>577</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>80</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>78</v>
@@ -16660,7 +16660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
         <v>606</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>80</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>78</v>
@@ -17356,7 +17356,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
         <v>618</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>90</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>78</v>
@@ -17471,7 +17471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
         <v>621</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>80</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>78</v>
